--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMINI~1\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>월</t>
   </si>
@@ -98,29 +98,44 @@
   <si>
     <t>수'</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목'</t>
+  </si>
+  <si>
+    <t>수업(~14:30)</t>
+  </si>
+  <si>
+    <t>수업</t>
+  </si>
+  <si>
+    <t>바이올린</t>
+  </si>
+  <si>
+    <t>연세바이올린첼로, 호수공원 앞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,6 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -473,25 +495,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -511,35 +534,64 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K2" t="s">
+    <row r="2" spans="1:13">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K3" t="s">
+    <row r="3" spans="1:13">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -547,14 +599,15 @@
         <v>6</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="K4" t="s">
+      <c r="H4" s="10"/>
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -569,11 +622,20 @@
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>0.625</v>
       </c>
@@ -588,11 +650,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -606,16 +669,19 @@
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -628,9 +694,10 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>0.75</v>
       </c>
@@ -638,8 +705,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>0.79166666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\study\python_tutor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>월</t>
   </si>
@@ -119,17 +119,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -498,23 +498,23 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="14.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -566,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
         <v>26</v>
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -628,6 +628,9 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
@@ -635,7 +638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.625</v>
       </c>
@@ -655,7 +658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -681,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -697,7 +700,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.75</v>
       </c>
@@ -709,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.79166666666666663</v>
       </c>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>월</t>
   </si>
@@ -113,6 +113,26 @@
   </si>
   <si>
     <t>연세바이올린첼로, 호수공원 앞</t>
+  </si>
+  <si>
+    <t>방과후(2학기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹툰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(15:40~17:10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금(15:00~16:00) or 16:10~17:10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +235,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -498,7 +521,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,6 +535,7 @@
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -683,6 +707,9 @@
       <c r="J7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -699,6 +726,12 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="8"/>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -710,6 +743,12 @@
       <c r="C9" s="9"/>
       <c r="I9" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>월</t>
   </si>
@@ -132,6 +132,34 @@
   </si>
   <si>
     <t>금(15:00~16:00) or 16:10~17:10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00~14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00~15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00~16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00~17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00~18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00~19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00~20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,12 +549,13 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="16.25" hidden="1" customWidth="1"/>
@@ -616,8 +645,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0.54166666666666663</v>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -632,8 +661,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.58333333333333337</v>
+      <c r="A5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -663,8 +692,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0.625</v>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
@@ -683,8 +712,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0.66666666666666663</v>
+      <c r="A7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -692,7 +721,9 @@
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
@@ -700,7 +731,9 @@
         <v>7</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
@@ -712,19 +745,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0.70833333333333337</v>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="L8" t="s">
         <v>30</v>
@@ -734,13 +768,19 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0.75</v>
+      <c r="A9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
@@ -752,8 +792,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0.79166666666666663</v>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,9 +681,7 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J5" s="9"/>
       <c r="L5" t="s">
         <v>27</v>
       </c>
@@ -760,6 +758,9 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\study\python_tutor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>월</t>
   </si>
@@ -161,29 +161,32 @@
   <si>
     <t>19:00~20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13:50~15:20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -266,12 +275,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -549,25 +564,25 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="15.375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="14.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -619,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
         <v>26</v>
@@ -644,14 +659,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="L4" t="s">
         <v>18</v>
@@ -660,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -672,8 +689,8 @@
         <v>8</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+      <c r="F5" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>25</v>
@@ -689,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -699,17 +716,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -742,7 +761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -768,7 +787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -792,7 +811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>월</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>(13:50~15:20)</t>
+  </si>
+  <si>
+    <t>20:00~21:00</t>
+  </si>
+  <si>
+    <t>수영</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -276,6 +288,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -561,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -816,6 +829,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\study\python_tutor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>월</t>
   </si>
@@ -56,18 +56,12 @@
     <t>수학_2(15:30분)</t>
   </si>
   <si>
-    <t>수학_2</t>
-  </si>
-  <si>
     <t>영어(16시 40분)</t>
   </si>
   <si>
     <t>18시 40분</t>
   </si>
   <si>
-    <t>CMS수학(위례점), 중앙상가</t>
-  </si>
-  <si>
     <t>수학의 시점(위례점), 호수공원 앞</t>
   </si>
   <si>
@@ -115,26 +109,6 @@
     <t>연세바이올린첼로, 호수공원 앞</t>
   </si>
   <si>
-    <t>방과후(2학기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹툰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화(15:40~17:10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금(15:00~16:00) or 16:10~17:10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13:00~14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,23 +144,35 @@
   </si>
   <si>
     <t>수영</t>
+  </si>
+  <si>
+    <t>수(13:50~15:20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올린(방과후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -577,30 +563,32 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="14.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -609,28 +597,28 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -641,40 +629,40 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -684,15 +672,15 @@
       </c>
       <c r="H4" s="10"/>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -703,29 +691,29 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
@@ -734,25 +722,28 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
@@ -762,25 +753,22 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
@@ -793,51 +781,40 @@
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/태영 시간표_학원.xlsx
+++ b/태영 시간표_학원.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>월</t>
   </si>
@@ -68,18 +68,12 @@
     <t>영어</t>
   </si>
   <si>
-    <t>더와이즈어학원, 위례</t>
-  </si>
-  <si>
     <t>월'</t>
   </si>
   <si>
     <t>ITQ파워</t>
   </si>
   <si>
-    <t>16시15분</t>
-  </si>
-  <si>
     <t>금'</t>
   </si>
   <si>
@@ -155,6 +149,26 @@
   </si>
   <si>
     <t>바이올린(방과후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로리아 어학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어(19:00~20:20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16시30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수, 15:30~17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -275,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -560,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,12 +600,12 @@
     <col min="13" max="13" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -597,19 +614,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -618,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -632,37 +649,40 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -672,15 +692,15 @@
       </c>
       <c r="H4" s="10"/>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -691,29 +711,29 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
@@ -722,29 +742,27 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
@@ -752,69 +770,69 @@
         <v>7</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="8"/>
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
